--- a/WGRDBESstockCoord/format/RCEF/RCEF_v17.xlsx
+++ b/WGRDBESstockCoord/format/RCEF/RCEF_v17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{295B3F6A-E868-4E8F-98B7-C62F7BFB4C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A60E3B-1BEC-49C2-BE46-2B235660D1FC}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{295B3F6A-E868-4E8F-98B7-C62F7BFB4C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E40886-5591-4D8E-A5EF-3D5D68E78538}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="216">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -727,39 +727,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Code list needed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
     </r>
   </si>
   <si>
@@ -1201,58 +1168,6 @@
     <t>Mandatory for catchCategory = 'Lan'. Optional for catchCategory != 'Lan'</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AreaType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">? (ICESArea, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ICESAreaList, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StockArea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>ices_StockCode</t>
   </si>
   <si>
@@ -1262,9 +1177,6 @@
     <t>Quater &amp; Month &amp; Year</t>
   </si>
   <si>
-    <t>Code list needed WGWeight, OfficialWeight, WGNumber, OfficialNumber</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Same definition as in RDBES CL. The estimated scientific live weight in kg. Scientific weight is equal to reporting category 'A' in InterCatch, so it includes both reported, non-reported and misreported. </t>
     </r>
@@ -1289,31 +1201,6 @@
       </rPr>
       <t xml:space="preserve"> if catchCat = "Lan" then sciWeight != NA. </t>
     </r>
-  </si>
-  <si>
-    <t>Code list needed WGDaysAtSea, WGkWDaysAtSea, WGFishingDays, WGVesselFishingHour, WGkWFishingDays, WGnumberOfUniqueVessels, WGnumberOfDominantTrips, WGkWFishingHours, WGNumberOfHaulsOrSets, WGVesselKgPrHour</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Code names are from the RDBES CE data model. </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Replace with unit</t>
-    </r>
-  </si>
-  <si>
-    <t>We will note what units are needed</t>
   </si>
   <si>
     <r>
@@ -1493,13 +1380,285 @@
   </si>
   <si>
     <t>This should refer only to the real samples</t>
+  </si>
+  <si>
+    <t>WG / Official</t>
+  </si>
+  <si>
+    <t>MUNIT</t>
+  </si>
+  <si>
+    <t>sourceType</t>
+  </si>
+  <si>
+    <t>Code list needed WeightLive + Number</t>
+  </si>
+  <si>
+    <t>DataBasis</t>
+  </si>
+  <si>
+    <t>WGValue - the final tonnage | number going into the assessment. These can be estimated or coming from official records. It is importaint that the SC can pick this one and know that this is the correct and final value. For weight it would be similar to CATON in IC.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WGValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Official, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimated, Measured, NotApplicable, Unknown</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DaysAtSea, kWDaysAtSea, FishingDays, VesselFishingHour, kWFishingDays, numberOfUniqueVessels, numberOfDominantTrips, kWFishingHours, NumberOfHaulsOrSets, VesselKgPrHour </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code names are from the RDBES CE data model. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Replace with codes from MUNIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. See RDBES CE for description</t>
+    </r>
+  </si>
+  <si>
+    <t>Currently only ICESArea can be used</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AreaType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ICESArea,</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICESAreaList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StockArea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Code list needed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WGFleet, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WGFleetList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Metier6, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metier6List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Metier5, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metier5List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Metier4, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metier4List</t>
+    </r>
+  </si>
+  <si>
+    <t>WGFleet codes are defined by the AWG groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,24 +1806,18 @@
       <family val="2"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7030A0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1779,7 +1932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1890,15 +2043,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1908,13 +2052,13 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,6 +2080,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2959,11 +3107,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3008,7 +3156,7 @@
         <v>23</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>43</v>
@@ -3109,7 +3257,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>54</v>
@@ -3164,7 +3312,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>104</v>
@@ -3187,7 +3335,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3207,10 +3355,10 @@
         <v>24</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3230,10 +3378,13 @@
         <v>24</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>162</v>
+        <v>213</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3253,7 +3404,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H11" s="17"/>
     </row>
@@ -3294,7 +3445,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>24</v>
@@ -3309,7 +3460,7 @@
         <v>62</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3329,13 +3480,16 @@
         <v>24</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -3355,12 +3509,12 @@
         <v>24</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="17"/>
       <c r="I15" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -3371,7 +3525,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>61</v>
@@ -3380,7 +3534,7 @@
         <v>92</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>79</v>
@@ -3394,7 +3548,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>61</v>
@@ -3403,7 +3557,7 @@
         <v>59</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3414,7 +3568,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>61</v>
@@ -3423,33 +3577,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>44</v>
@@ -3460,138 +3610,159 @@
       <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F20" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>24</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D24" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F24" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="I24" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="31" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="27"/>
+      <c r="F31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3607,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A6" zoomScale="136" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3634,7 +3805,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
@@ -3817,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>50</v>
@@ -3847,7 +4018,7 @@
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -3857,7 +4028,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>103</v>
@@ -3870,7 +4041,7 @@
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -3880,7 +4051,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>125</v>
@@ -3893,7 +4064,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
@@ -3939,7 +4110,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17" t="s">
@@ -3973,10 +4144,10 @@
         <v>24</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" s="26"/>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="34" t="s">
         <v>127</v>
       </c>
       <c r="I17" s="7"/>
@@ -3992,7 +4163,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
@@ -4142,10 +4313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C1:C1048576"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4197,7 +4368,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
@@ -4453,7 +4624,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17" t="s">
@@ -4478,7 +4649,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
@@ -4528,7 +4699,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>75</v>
@@ -4642,50 +4813,67 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
+      <c r="F24" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="34" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4696,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A8" zoomScale="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4719,7 +4907,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -4851,7 +5039,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -4895,7 +5083,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>106</v>
@@ -4919,7 +5107,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -5018,50 +5206,59 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="42" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="42" t="s">
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>52</v>
+      <c r="F15" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>171</v>
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5090,10 +5287,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -5104,7 +5301,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -5116,7 +5313,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -5148,7 +5345,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -5157,7 +5354,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -5167,13 +5364,13 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -5439,26 +5636,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5483,89 +5680,89 @@
   <sheetData>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>155</v>
+      <c r="C5" s="43" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C10" s="48"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="48" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
+      <c r="C12" s="45" t="s">
         <v>177</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="51"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5574,15 +5771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5594,7 +5782,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5771,15 +5959,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5789,7 +5978,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E1917-8142-40B1-B65D-035A525D2E69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5806,4 +5995,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WGRDBESstockCoord/format/RCEF/RCEF_v17.xlsx
+++ b/WGRDBESstockCoord/format/RCEF/RCEF_v17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Rstudio\D1SCI\VISBIO\RDBESstockCoord\WGRDBESstockCoord\format\RCEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{295B3F6A-E868-4E8F-98B7-C62F7BFB4C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E40886-5591-4D8E-A5EF-3D5D68E78538}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4FC041-9ADF-444F-9E53-DD5D5A9341CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
   <sheets>
     <sheet name="RCEF" sheetId="1" r:id="rId1"/>
@@ -2082,10 +2082,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2409,20 +2405,20 @@
       <selection activeCell="B34" sqref="B34:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2433,14 +2429,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="E3" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -2450,7 +2446,7 @@
       <c r="F5" s="23"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +2462,7 @@
       <c r="F6" s="24"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
@@ -2482,7 +2478,7 @@
       <c r="F7" s="24"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>35</v>
       </c>
@@ -2498,7 +2494,7 @@
       <c r="F8" s="24"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
@@ -2514,7 +2510,7 @@
       <c r="F9" s="24"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
@@ -2530,7 +2526,7 @@
       <c r="F10" s="24"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>3</v>
       </c>
@@ -2546,7 +2542,7 @@
       <c r="F11" s="24"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>93</v>
       </c>
@@ -2562,7 +2558,7 @@
       <c r="F12" s="24"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>94</v>
       </c>
@@ -2578,7 +2574,7 @@
       <c r="F13" s="24"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>95</v>
       </c>
@@ -2594,7 +2590,7 @@
       <c r="F14" s="24"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>96</v>
       </c>
@@ -2610,7 +2606,7 @@
       <c r="F15" s="24"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>40</v>
       </c>
@@ -2625,7 +2621,7 @@
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>4</v>
       </c>
@@ -2639,7 +2635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>97</v>
       </c>
@@ -2653,7 +2649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>109</v>
       </c>
@@ -2667,7 +2663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>16</v>
       </c>
@@ -2695,7 +2691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>51</v>
       </c>
@@ -2710,7 +2706,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2721,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>117</v>
       </c>
@@ -2741,7 +2737,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2752,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>98</v>
       </c>
@@ -2771,7 +2767,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>67</v>
       </c>
@@ -2787,7 +2783,7 @@
       <c r="E27" s="1"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +2792,7 @@
       </c>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>90</v>
       </c>
@@ -2805,7 +2801,7 @@
       </c>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -2814,19 +2810,19 @@
       </c>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
@@ -2834,7 +2830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>0</v>
       </c>
@@ -2849,7 +2845,7 @@
       </c>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +2860,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>35</v>
       </c>
@@ -2879,7 +2875,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
         <v>17</v>
       </c>
@@ -2894,7 +2890,7 @@
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
         <v>2</v>
       </c>
@@ -2909,7 +2905,7 @@
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2920,7 @@
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
         <v>108</v>
       </c>
@@ -2939,7 +2935,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>94</v>
       </c>
@@ -2954,7 +2950,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>95</v>
       </c>
@@ -2969,7 +2965,7 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>96</v>
       </c>
@@ -2984,7 +2980,7 @@
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>40</v>
       </c>
@@ -2999,7 +2995,7 @@
       </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>32</v>
       </c>
@@ -3014,7 +3010,7 @@
       </c>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
         <v>38</v>
       </c>
@@ -3029,7 +3025,7 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>4</v>
       </c>
@@ -3039,7 +3035,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>97</v>
       </c>
@@ -3048,7 +3044,7 @@
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>109</v>
       </c>
@@ -3058,7 +3054,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>5</v>
       </c>
@@ -3067,7 +3063,7 @@
       </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>117</v>
       </c>
@@ -3076,7 +3072,7 @@
       </c>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>6</v>
       </c>
@@ -3085,19 +3081,19 @@
       </c>
       <c r="H53" s="12"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="18"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="18"/>
     </row>
   </sheetData>
@@ -3109,28 +3105,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="77.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="104.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="38.33203125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="104.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -3162,7 +3158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -3188,7 +3184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -3214,7 +3210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -3263,7 +3259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -3289,7 +3285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -3318,7 +3314,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -3338,7 +3334,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -3387,7 +3383,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3408,7 +3404,7 @@
       </c>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -3434,7 +3430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -3463,7 +3459,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -3492,7 +3488,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -3517,7 +3513,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -3540,7 +3536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
@@ -3560,7 +3556,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>51</v>
       </c>
@@ -3577,7 +3573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3594,7 +3590,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -3618,7 +3614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>117</v>
       </c>
@@ -3638,7 +3634,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -3658,7 +3654,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>98</v>
       </c>
@@ -3675,7 +3671,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>197</v>
       </c>
@@ -3698,7 +3694,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3714,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>90</v>
       </c>
@@ -3738,7 +3734,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
@@ -3755,7 +3751,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>107</v>
       </c>
@@ -3778,25 +3774,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="71.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
@@ -3811,7 +3807,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
@@ -3840,7 +3836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3863,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -3894,7 +3890,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -3919,7 +3915,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -3944,7 +3940,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -3971,7 +3967,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -3996,7 +3992,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
@@ -4015,7 +4011,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>187</v>
@@ -4038,7 +4034,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
         <v>188</v>
@@ -4061,7 +4057,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>189</v>
@@ -4080,7 +4076,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>83</v>
@@ -4099,7 +4095,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>114</v>
@@ -4118,7 +4114,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>115</v>
@@ -4131,7 +4127,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -4152,7 +4148,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
         <v>117</v>
@@ -4169,7 +4165,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
         <v>99</v>
@@ -4192,7 +4188,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
         <v>110</v>
@@ -4205,7 +4201,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
         <v>98</v>
@@ -4224,10 +4220,10 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
@@ -4243,7 +4239,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -4262,7 +4258,7 @@
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
         <v>90</v>
@@ -4281,7 +4277,7 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
         <v>11</v>
@@ -4315,40 +4311,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="28.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="11"/>
+    <col min="2" max="2" width="28.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="11" customWidth="1"/>
     <col min="4" max="4" width="11" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" style="11" customWidth="1"/>
     <col min="6" max="6" width="35" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="67.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="66.6640625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="23.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="67.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="66.7109375" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
@@ -4361,7 +4357,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4374,7 +4370,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
@@ -4403,7 +4399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -4430,7 +4426,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -4457,7 +4453,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -4484,7 +4480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -4509,7 +4505,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -4536,7 +4532,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -4563,7 +4559,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -4586,7 +4582,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -4609,7 +4605,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>95</v>
@@ -4632,7 +4628,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -4655,7 +4651,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
@@ -4682,7 +4678,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -4709,7 +4705,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -4736,7 +4732,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -4763,7 +4759,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -4788,7 +4784,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -4813,7 +4809,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -4827,7 +4823,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
         <v>5</v>
@@ -4848,7 +4844,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
@@ -4862,7 +4858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
@@ -4884,25 +4880,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="69" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="10" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -4912,7 +4908,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
@@ -4941,7 +4937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -4968,7 +4964,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -4995,7 +4991,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -5022,7 +5018,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -5044,7 +5040,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -5066,7 +5062,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -5090,7 +5086,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -5112,7 +5108,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -5139,7 +5135,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -5166,7 +5162,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -5181,7 +5177,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -5206,7 +5202,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -5220,7 +5216,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -5247,7 +5243,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -5277,15 +5273,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="116" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>146</v>
       </c>
@@ -5299,7 +5295,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>148</v>
       </c>
@@ -5311,7 +5307,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>149</v>
       </c>
@@ -5323,7 +5319,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -5333,7 +5329,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -5343,7 +5339,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>153</v>
       </c>
@@ -5361,7 +5357,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
         <v>184</v>
@@ -5377,7 +5373,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -5387,7 +5383,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -5397,7 +5393,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -5407,7 +5403,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -5417,7 +5413,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5427,7 +5423,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -5437,7 +5433,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -5447,7 +5443,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -5457,7 +5453,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -5467,7 +5463,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5477,7 +5473,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5487,7 +5483,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -5497,7 +5493,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -5507,7 +5503,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -5517,7 +5513,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5527,7 +5523,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -5537,7 +5533,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -5547,7 +5543,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -5557,7 +5553,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -5567,7 +5563,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -5577,7 +5573,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -5587,7 +5583,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5597,7 +5593,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5607,7 +5603,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -5628,13 +5624,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>146</v>
       </c>
@@ -5642,7 +5638,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>148</v>
       </c>
@@ -5650,7 +5646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>149</v>
       </c>
@@ -5671,15 +5667,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
@@ -5690,7 +5686,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>179</v>
       </c>
@@ -5701,7 +5697,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>168</v>
       </c>
@@ -5712,7 +5708,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>178</v>
       </c>
@@ -5723,7 +5719,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>170</v>
       </c>
@@ -5734,7 +5730,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>180</v>
       </c>
@@ -5743,7 +5739,7 @@
       </c>
       <c r="C10" s="48"/>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>181</v>
       </c>
@@ -5754,7 +5750,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>182</v>
       </c>
@@ -5771,15 +5767,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5960,20 +5953,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5998,9 +5992,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>